--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144591.673637716</v>
+        <v>24966998.06585101</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144591.673637716</v>
+        <v>24966998.06585101</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30693.39663531199</v>
+        <v>3812269.280644698</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30693.39663531199</v>
+        <v>3812269.280644698</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417411486.944013</v>
+        <v>52639124.95653652</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10476.64878121129</v>
+        <v>1070239.173447539</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20889.81714226769</v>
+        <v>2132543.271366682</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31309.21521158363</v>
+        <v>3196087.081229477</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41888.71818925162</v>
+        <v>4245892.663575084</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52144.88259675568</v>
+        <v>5320775.281494229</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62385.15096858587</v>
+        <v>6405250.474552943</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72643.61570405448</v>
+        <v>7512239.198157207</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82913.07383526178</v>
+        <v>8621415.607513826</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93532.65778033684</v>
+        <v>9681455.065643091</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103552.0517899141</v>
+        <v>10785866.60974718</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113404.6972516923</v>
+        <v>11917094.52050212</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123274.958476217</v>
+        <v>13051827.96804359</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133145.2197007426</v>
+        <v>14186561.41558501</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>143798.9015892201</v>
+        <v>15247800.23391879</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155921.6847773694</v>
+        <v>16106992.3390991</v>
       </c>
     </row>
   </sheetData>
